--- a/data/stat probs/ron harper jr stat probs - condition.xlsx
+++ b/data/stat probs/ron harper jr stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -543,28 +543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -1379,28 +1379,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1797,28 +1797,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2152,7 +2152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2247,315 +2247,27 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -2570,7 +2282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2645,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2665,315 +2377,27 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>75</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D12" t="n">
-        <v>75</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3057,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3089,16 +2513,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3187,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3219,16 +2643,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3323,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3349,16 +2773,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3453,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3479,16 +2903,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -3508,7 +2932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3577,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3609,21 +3033,53 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3701,28 +3157,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -4056,7 +3512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4125,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4157,21 +3613,53 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4261,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4287,16 +3775,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4325,10 +3813,10 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4423,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4449,16 +3937,16 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4487,10 +3975,10 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4585,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4747,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4903,10 +4391,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5033,10 +4521,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5451,28 +4939,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -6163,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6325,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6487,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6649,10 +6137,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6811,10 +6299,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6973,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -7135,16 +6623,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7297,28 +6785,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7715,16 +7203,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7877,16 +7365,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8039,16 +7527,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8201,16 +7689,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8363,16 +7851,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8525,16 +8013,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8543,10 +8031,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8815,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8833,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9105,16 +8593,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9123,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9395,16 +8883,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9413,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9685,16 +9173,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9703,10 +9191,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -9975,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10137,16 +9625,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10155,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11015,22 +10503,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11177,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -11595,28 +11083,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -12013,28 +11501,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
